--- a/biology/Botanique/Tapura/Tapura.xlsx
+++ b/biology/Botanique/Tapura/Tapura.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tapura est un genre de plantes à fleurs de la famille des Dichapetalaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « TAPURA. (Tabula 48.)
 CAL. Perianthium monophyllum, ſex-partitum ; laciniis ovatis, concavis. 
 COR. monopetala, bilabiata ; labio ſuperiori oblongo, concavo, erecto, apice tridentato ; labio inferiori bipartito, lobis obtuſis, brevibus, receptaculo piſtilli inſerta. 
@@ -549,9 +563,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (17 septembre 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (17 septembre 2017) :
 Tapura acreana (Ule) Rizzini
 Tapura africana Oliv.
 Tapura amazonica Poepp. &amp; Endl.
@@ -587,13 +603,13 @@
 Tapura tessmannii (K. Krause) Prance
 Tapura wurdackiana G.T. Prance
 Tapura zei-limae Amorim &amp; Fiaschi
-Selon NCBI  (17 septembre 2017)[4] :
+Selon NCBI  (17 septembre 2017) :
 Tapura africana
 Tapura amazonica
 Tapura capitulifera
 Tapura fischeri
 Tapura guianensis
-Selon The Plant List            (17 septembre 2017)[5] :
+Selon The Plant List            (17 septembre 2017) :
 Tapura acreana (Ule) Rizzini
 Tapura africana Oliv.
 Tapura amazonica Poepp.
@@ -626,7 +642,7 @@
 Tapura tchoutoi Breteler
 Tapura tessmannii (K. Krause) Prance
 Tapura wurdackiana Prance
-Selon Tropicos                                           (17 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Tapura acreana (Ule) Rizzini
 Tapura africana Oliv.
 Tapura amazonica Poepp.
